--- a/nodes_source_analyses/bunkers/bunkers_p2l_point_source_CO.converter.xlsx
+++ b/nodes_source_analyses/bunkers/bunkers_p2l_point_source_CO.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/bunkers/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACFBF63-02EE-124F-859B-646E1485F0E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="16200" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -42,10 +43,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -55,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="141">
   <si>
     <t>Source</t>
   </si>
@@ -331,9 +338,6 @@
     <t>typical_input_capacity</t>
   </si>
   <si>
-    <t>included in initial_investment</t>
-  </si>
-  <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
@@ -537,19 +541,22 @@
   </si>
   <si>
     <t xml:space="preserve">Total fixed annual O&amp;M </t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1610,7 +1617,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1783,7 +1790,6 @@
     <xf numFmtId="0" fontId="29" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1844,6 +1850,7 @@
     </xf>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1871,7 +1878,6 @@
     <xf numFmtId="0" fontId="29" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="504">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2377,13 +2383,16 @@
     <cellStyle name="Hyperlink" xfId="500" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="502" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="274"/>
+    <cellStyle name="Normal 2" xfId="274" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2406,7 +2415,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2444,7 +2459,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2965,8 +2986,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
@@ -2975,50 +2996,50 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="30" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="28" customFormat="1">
       <c r="A1" s="26"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="29"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>12</v>
@@ -3027,29 +3048,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="70" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="71"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="72" t="s">
         <v>26</v>
@@ -3058,33 +3079,33 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="72"/>
       <c r="C12" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="72"/>
       <c r="C13" s="75" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="72"/>
       <c r="C14" s="73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="72"/>
       <c r="C15" s="73"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="72" t="s">
         <v>31</v>
@@ -3093,49 +3114,49 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="72"/>
       <c r="C17" s="77" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="72"/>
       <c r="C18" s="78" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="72"/>
       <c r="C19" s="79" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="80"/>
       <c r="C20" s="81" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="80"/>
       <c r="C21" s="82" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="80"/>
       <c r="C22" s="83" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="80"/>
       <c r="C23" s="84" t="s">
         <v>39</v>
@@ -3148,36 +3169,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="34" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="34" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="34" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
-    <col min="7" max="7" width="49.5" style="34" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="34"/>
+    <col min="1" max="2" width="3.42578125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" style="34" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="34" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="D1" s="35"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="B2" s="169" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="170"/>
       <c r="D2" s="170"/>
@@ -3185,7 +3206,7 @@
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="B3" s="172"/>
       <c r="C3" s="173"/>
       <c r="D3" s="173"/>
@@ -3193,7 +3214,7 @@
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="B4" s="172"/>
       <c r="C4" s="173"/>
       <c r="D4" s="173"/>
@@ -3201,7 +3222,7 @@
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="B5" s="175"/>
       <c r="C5" s="176"/>
       <c r="D5" s="176"/>
@@ -3209,17 +3230,17 @@
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
     </row>
-    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="17" thickBot="1">
       <c r="D7" s="35"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="B8" s="36"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -3230,7 +3251,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="37"/>
     </row>
-    <row r="9" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="25" customFormat="1">
       <c r="B9" s="23"/>
       <c r="C9" s="15" t="s">
         <v>18</v>
@@ -3251,7 +3272,7 @@
       </c>
       <c r="J9" s="87"/>
     </row>
-    <row r="10" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="25" customFormat="1">
       <c r="B10" s="24"/>
       <c r="C10" s="12"/>
       <c r="D10" s="32"/>
@@ -3262,7 +3283,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:11" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="25" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="24"/>
       <c r="C11" s="12" t="s">
         <v>42</v>
@@ -3275,120 +3296,120 @@
       <c r="I11" s="12"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="1:11" s="148" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="149"/>
-      <c r="C12" s="141" t="s">
+    <row r="12" spans="1:11" s="147" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B12" s="148"/>
+      <c r="C12" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="142" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="150">
+      <c r="D12" s="141" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="149">
         <f>'Research data'!H7</f>
         <v>30.429625199362039</v>
       </c>
-      <c r="F12" s="141"/>
-      <c r="G12" s="151"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="152"/>
-    </row>
-    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="140"/>
+      <c r="G12" s="150"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="151"/>
+    </row>
+    <row r="13" spans="1:11" ht="17" thickBot="1">
       <c r="A13" s="25"/>
       <c r="B13" s="24"/>
       <c r="C13" s="93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="150">
+      <c r="E13" s="149">
         <f>'Research data'!H8</f>
         <v>0.61088888543012332</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="93"/>
       <c r="H13" s="31"/>
-      <c r="I13" s="137"/>
+      <c r="I13" s="136"/>
       <c r="J13" s="13"/>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="17" thickBot="1">
       <c r="A14" s="95"/>
       <c r="B14" s="96"/>
       <c r="C14" s="129" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="150">
+      <c r="E14" s="149">
         <f>'Research data'!H9</f>
         <v>0.38911111456987657</v>
       </c>
       <c r="F14" s="93"/>
       <c r="G14" s="129"/>
       <c r="H14" s="93"/>
-      <c r="I14" s="137"/>
+      <c r="I14" s="136"/>
       <c r="J14" s="97"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="17" thickBot="1">
       <c r="A15" s="95"/>
       <c r="B15" s="96"/>
       <c r="C15" s="116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="150">
+      <c r="E15" s="149">
         <f>'Research data'!H10</f>
         <v>0.81603669588173489</v>
       </c>
       <c r="F15" s="93"/>
       <c r="G15" s="93"/>
       <c r="H15" s="93"/>
-      <c r="I15" s="137"/>
+      <c r="I15" s="136"/>
       <c r="J15" s="97"/>
       <c r="K15" s="35"/>
     </row>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="17" thickBot="1">
       <c r="B16" s="96"/>
       <c r="C16" s="93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="150">
+      <c r="E16" s="149">
         <f>'Research data'!H11</f>
         <v>0.18396330411826511</v>
       </c>
       <c r="F16" s="93"/>
       <c r="G16" s="93"/>
       <c r="H16" s="93"/>
-      <c r="I16" s="137"/>
+      <c r="I16" s="136"/>
       <c r="J16" s="97"/>
     </row>
-    <row r="17" spans="1:11" s="139" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="140"/>
-      <c r="C17" s="141" t="s">
+    <row r="17" spans="1:11" s="138" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B17" s="139"/>
+      <c r="C17" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="142" t="s">
+      <c r="D17" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="150">
+      <c r="E17" s="149">
         <f>'Research data'!H12</f>
         <v>8000</v>
       </c>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="146"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="145"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="B18" s="39"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
@@ -3399,7 +3420,7 @@
       <c r="I18" s="35"/>
       <c r="J18" s="88"/>
     </row>
-    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="17" thickBot="1">
       <c r="B19" s="39"/>
       <c r="C19" s="12" t="s">
         <v>41</v>
@@ -3412,7 +3433,7 @@
       <c r="I19" s="35"/>
       <c r="J19" s="88"/>
     </row>
-    <row r="20" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="17" thickBot="1">
       <c r="B20" s="39"/>
       <c r="C20" s="38" t="s">
         <v>21</v>
@@ -3420,7 +3441,7 @@
       <c r="D20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="147">
+      <c r="E20" s="146">
         <f>'Research data'!H15</f>
         <v>103874760.92654248</v>
       </c>
@@ -3432,7 +3453,7 @@
       <c r="I20" s="133"/>
       <c r="J20" s="88"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="B21" s="39"/>
       <c r="C21" s="38" t="s">
         <v>22</v>
@@ -3452,7 +3473,7 @@
       <c r="I21" s="133"/>
       <c r="J21" s="88"/>
     </row>
-    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="17" thickBot="1">
       <c r="B22" s="111"/>
       <c r="C22" s="118" t="s">
         <v>65</v>
@@ -3460,7 +3481,7 @@
       <c r="D22" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="178">
+      <c r="E22" s="168">
         <f>'Research data'!H19</f>
         <v>0</v>
       </c>
@@ -3472,13 +3493,13 @@
       <c r="I22" s="133"/>
       <c r="J22" s="115"/>
     </row>
-    <row r="23" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="17" thickBot="1">
       <c r="B23" s="111"/>
       <c r="C23" s="118" t="s">
         <v>64</v>
       </c>
       <c r="D23" s="113"/>
-      <c r="E23" s="178">
+      <c r="E23" s="168">
         <f>'Research data'!H18</f>
         <v>0</v>
       </c>
@@ -3490,13 +3511,13 @@
       <c r="I23" s="124"/>
       <c r="J23" s="115"/>
     </row>
-    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="17" thickBot="1">
       <c r="B24" s="111"/>
       <c r="C24" s="125" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="113"/>
-      <c r="E24" s="178">
+      <c r="E24" s="168">
         <f>'Research data'!H19</f>
         <v>0</v>
       </c>
@@ -3508,7 +3529,7 @@
       <c r="I24" s="134"/>
       <c r="J24" s="115"/>
     </row>
-    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="17" thickBot="1">
       <c r="A25" s="95"/>
       <c r="B25" s="96"/>
       <c r="C25" s="93" t="s">
@@ -3517,19 +3538,20 @@
       <c r="D25" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="167">
-        <f>'Research data'!H20</f>
-        <v>0.04</v>
+      <c r="E25" s="166">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F25" s="93"/>
       <c r="G25" s="93" t="s">
         <v>51</v>
       </c>
       <c r="H25" s="93"/>
-      <c r="I25" s="137"/>
+      <c r="I25" s="136" t="s">
+        <v>140</v>
+      </c>
       <c r="J25" s="97"/>
     </row>
-    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="17" thickBot="1">
       <c r="A26" s="95"/>
       <c r="B26" s="96"/>
       <c r="C26" s="93" t="s">
@@ -3538,7 +3560,7 @@
       <c r="D26" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="167">
+      <c r="E26" s="166">
         <v>0</v>
       </c>
       <c r="F26" s="93"/>
@@ -3547,7 +3569,7 @@
       <c r="I26" s="94"/>
       <c r="J26" s="97"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="95"/>
       <c r="B27" s="96"/>
       <c r="C27" s="93"/>
@@ -3559,7 +3581,7 @@
       <c r="I27" s="99"/>
       <c r="J27" s="97"/>
     </row>
-    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="17" thickBot="1">
       <c r="A28" s="95"/>
       <c r="B28" s="96"/>
       <c r="C28" s="12" t="s">
@@ -3572,7 +3594,7 @@
       <c r="I28" s="99"/>
       <c r="J28" s="97"/>
     </row>
-    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="17" thickBot="1">
       <c r="A29" s="95"/>
       <c r="B29" s="96"/>
       <c r="C29" s="93" t="s">
@@ -3582,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="98">
-        <f>'Research data'!H24</f>
+        <f>'Research data'!H23</f>
         <v>25</v>
       </c>
       <c r="F29" s="93"/>
@@ -3593,7 +3615,7 @@
       <c r="I29" s="133"/>
       <c r="J29" s="97"/>
     </row>
-    <row r="30" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="17" thickBot="1">
       <c r="A30" s="95"/>
       <c r="B30" s="96"/>
       <c r="C30" s="93" t="s">
@@ -3603,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="98">
-        <f>'Research data'!H25</f>
+        <f>'Research data'!H24</f>
         <v>0</v>
       </c>
       <c r="F30" s="93"/>
@@ -3614,7 +3636,7 @@
       <c r="I30" s="94"/>
       <c r="J30" s="97"/>
     </row>
-    <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="17" thickBot="1">
       <c r="A31" s="95"/>
       <c r="B31" s="96"/>
       <c r="C31" s="93" t="s">
@@ -3624,7 +3646,7 @@
         <v>55</v>
       </c>
       <c r="E31" s="98">
-        <f>'Research data'!H26</f>
+        <f>'Research data'!H25</f>
         <v>0</v>
       </c>
       <c r="F31" s="93"/>
@@ -3632,10 +3654,10 @@
         <v>59</v>
       </c>
       <c r="H31" s="93"/>
-      <c r="I31" s="137"/>
+      <c r="I31" s="136"/>
       <c r="J31" s="97"/>
     </row>
-    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="17" thickBot="1">
       <c r="A32" s="95"/>
       <c r="B32" s="96"/>
       <c r="C32" s="93" t="s">
@@ -3650,10 +3672,10 @@
       <c r="F32" s="93"/>
       <c r="G32" s="93"/>
       <c r="H32" s="93"/>
-      <c r="I32" s="137"/>
+      <c r="I32" s="136"/>
       <c r="J32" s="97"/>
     </row>
-    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="17" thickBot="1">
       <c r="A33" s="95"/>
       <c r="B33" s="102"/>
       <c r="C33" s="103"/>
@@ -3665,7 +3687,7 @@
       <c r="I33" s="103"/>
       <c r="J33" s="104"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="95"/>
       <c r="B34" s="95"/>
       <c r="C34" s="95"/>
@@ -3677,7 +3699,7 @@
       <c r="I34" s="95"/>
       <c r="J34" s="95"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="95"/>
       <c r="B35" s="95"/>
       <c r="C35" s="95"/>
@@ -3689,7 +3711,7 @@
       <c r="I35" s="95"/>
       <c r="J35" s="95"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="95"/>
       <c r="B36" s="95"/>
       <c r="C36" s="95"/>
@@ -3701,7 +3723,7 @@
       <c r="I36" s="95"/>
       <c r="J36" s="95"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="95"/>
       <c r="B37" s="95"/>
       <c r="E37" s="95"/>
@@ -3711,7 +3733,7 @@
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="95"/>
       <c r="B38" s="95"/>
       <c r="C38" s="95"/>
@@ -3723,7 +3745,7 @@
       <c r="I38" s="95"/>
       <c r="J38" s="95"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="95"/>
       <c r="B39" s="95"/>
       <c r="C39" s="95"/>
@@ -3735,7 +3757,7 @@
       <c r="I39" s="95"/>
       <c r="J39" s="95"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="95"/>
       <c r="B40" s="95"/>
       <c r="C40" s="95"/>
@@ -3747,7 +3769,7 @@
       <c r="I40" s="95"/>
       <c r="J40" s="95"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="95"/>
       <c r="B41" s="95"/>
       <c r="C41" s="95"/>
@@ -3759,10 +3781,10 @@
       <c r="I41" s="95"/>
       <c r="J41" s="95"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="95"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="95"/>
     </row>
   </sheetData>
@@ -3775,42 +3797,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:S27"/>
+  <dimension ref="A2:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="41" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="41" customWidth="1"/>
     <col min="2" max="2" width="3" style="41" customWidth="1"/>
     <col min="3" max="3" width="61" style="41" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="41" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="41" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="41" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="41" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="41" customWidth="1"/>
     <col min="7" max="7" width="3" style="41" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" style="41" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="41" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="41" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="41" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="41" customWidth="1"/>
-    <col min="13" max="13" width="2.6640625" style="41" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" style="41" customWidth="1"/>
-    <col min="15" max="15" width="2.5" style="41" customWidth="1"/>
-    <col min="16" max="16" width="23.5" style="41" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="41" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="41" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="41" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="41" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="41" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="41" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" style="41" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" style="41" customWidth="1"/>
     <col min="17" max="17" width="11" style="41" customWidth="1"/>
-    <col min="18" max="18" width="2.5" style="41" customWidth="1"/>
-    <col min="19" max="19" width="22.5" style="41" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="41"/>
+    <col min="18" max="18" width="2.42578125" style="41" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" style="41" customWidth="1"/>
+    <col min="20" max="16384" width="10.85546875" style="41"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="17" thickBot="1"/>
+    <row r="3" spans="1:19">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
@@ -3830,7 +3852,7 @@
       <c r="R3" s="43"/>
       <c r="S3" s="43"/>
     </row>
-    <row r="4" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="25" customFormat="1">
       <c r="B4" s="24"/>
       <c r="C4" s="85" t="s">
         <v>18</v>
@@ -3855,7 +3877,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="18" customHeight="1">
       <c r="B5" s="44"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -3872,7 +3894,7 @@
       <c r="O5" s="46"/>
       <c r="P5" s="51"/>
     </row>
-    <row r="6" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="44"/>
       <c r="C6" s="12" t="s">
         <v>42</v>
@@ -3888,17 +3910,17 @@
       <c r="L6" s="10"/>
       <c r="M6" s="49"/>
     </row>
-    <row r="7" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="17" thickBot="1">
       <c r="B7" s="44"/>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="142" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="150"/>
-      <c r="F7" s="142" t="s">
-        <v>80</v>
+      <c r="D7" s="141" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="149"/>
+      <c r="F7" s="141" t="s">
+        <v>79</v>
       </c>
       <c r="G7" s="86"/>
       <c r="H7" s="130">
@@ -3906,7 +3928,7 @@
         <v>30.429625199362039</v>
       </c>
       <c r="I7" s="46"/>
-      <c r="J7" s="163">
+      <c r="J7" s="162">
         <f>Notes!D42</f>
         <v>30.429625199362039</v>
       </c>
@@ -3914,11 +3936,11 @@
       <c r="L7" s="46"/>
       <c r="M7" s="92"/>
     </row>
-    <row r="8" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1">
       <c r="A8" s="25"/>
       <c r="B8" s="24"/>
       <c r="C8" s="93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>2</v>
@@ -3928,21 +3950,21 @@
         <v>2</v>
       </c>
       <c r="G8" s="93"/>
-      <c r="H8" s="165">
+      <c r="H8" s="164">
         <f>J8</f>
         <v>0.61088888543012332</v>
       </c>
-      <c r="J8" s="164">
+      <c r="J8" s="163">
         <f>Notes!E24</f>
         <v>0.61088888543012332</v>
       </c>
       <c r="K8" s="25"/>
     </row>
-    <row r="9" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1">
       <c r="A9" s="95"/>
       <c r="B9" s="96"/>
       <c r="C9" s="129" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>2</v>
@@ -3952,21 +3974,21 @@
         <v>2</v>
       </c>
       <c r="G9" s="129"/>
-      <c r="H9" s="165">
+      <c r="H9" s="164">
         <f t="shared" ref="H9:H12" si="0">J9</f>
         <v>0.38911111456987657</v>
       </c>
-      <c r="J9" s="164">
+      <c r="J9" s="163">
         <f>Notes!E25</f>
         <v>0.38911111456987657</v>
       </c>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1">
       <c r="A10" s="95"/>
       <c r="B10" s="96"/>
       <c r="C10" s="116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>2</v>
@@ -3976,20 +3998,20 @@
         <v>2</v>
       </c>
       <c r="G10" s="93"/>
-      <c r="H10" s="165">
+      <c r="H10" s="164">
         <f t="shared" si="0"/>
         <v>0.81603669588173489</v>
       </c>
-      <c r="J10" s="164">
+      <c r="J10" s="163">
         <f>Notes!E26</f>
         <v>0.81603669588173489</v>
       </c>
       <c r="K10" s="35"/>
     </row>
-    <row r="11" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="96"/>
       <c r="C11" s="93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>2</v>
@@ -3999,34 +4021,34 @@
         <v>2</v>
       </c>
       <c r="G11" s="93"/>
-      <c r="H11" s="165">
+      <c r="H11" s="164">
         <f t="shared" si="0"/>
         <v>0.18396330411826511</v>
       </c>
-      <c r="J11" s="164">
+      <c r="J11" s="163">
         <f>Notes!E27</f>
         <v>0.18396330411826511</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="17" thickBot="1">
       <c r="A12" s="95"/>
       <c r="B12" s="96"/>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="142" t="s">
+      <c r="D12" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="143"/>
-      <c r="F12" s="142" t="s">
+      <c r="E12" s="142"/>
+      <c r="F12" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="165">
+      <c r="H12" s="164">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="I12" s="93"/>
-      <c r="J12" s="162">
+      <c r="J12" s="161">
         <f>Notes!E16</f>
         <v>8000</v>
       </c>
@@ -4035,7 +4057,7 @@
       <c r="M12" s="117"/>
       <c r="N12" s="95"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="B13" s="44"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
@@ -4051,7 +4073,7 @@
       <c r="O13" s="46"/>
       <c r="P13" s="117"/>
     </row>
-    <row r="14" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="17" thickBot="1">
       <c r="A14" s="95"/>
       <c r="B14" s="96"/>
       <c r="C14" s="12" t="s">
@@ -4070,7 +4092,7 @@
       <c r="O14" s="105"/>
       <c r="P14" s="51"/>
     </row>
-    <row r="15" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="17" thickBot="1">
       <c r="A15" s="95"/>
       <c r="B15" s="96"/>
       <c r="C15" s="38" t="s">
@@ -4079,11 +4101,11 @@
       <c r="D15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="147"/>
+      <c r="E15" s="146"/>
       <c r="F15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="161">
+      <c r="H15" s="160">
         <f>J15</f>
         <v>103874760.92654248</v>
       </c>
@@ -4099,7 +4121,7 @@
       <c r="O15" s="105"/>
       <c r="P15" s="92"/>
     </row>
-    <row r="16" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="17" thickBot="1">
       <c r="A16" s="95"/>
       <c r="B16" s="96"/>
       <c r="C16" s="38" t="s">
@@ -4126,7 +4148,7 @@
       <c r="K16" s="105"/>
       <c r="P16" s="92"/>
     </row>
-    <row r="17" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="17" thickBot="1">
       <c r="A17" s="95"/>
       <c r="B17" s="96"/>
       <c r="C17" s="118" t="s">
@@ -4153,7 +4175,7 @@
       <c r="O17" s="105"/>
       <c r="P17" s="108"/>
     </row>
-    <row r="18" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="17" thickBot="1">
       <c r="A18" s="95"/>
       <c r="B18" s="96"/>
       <c r="C18" s="118" t="s">
@@ -4176,7 +4198,7 @@
       <c r="O18" s="100"/>
       <c r="P18" s="108"/>
     </row>
-    <row r="19" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="17" thickBot="1">
       <c r="A19" s="95"/>
       <c r="B19" s="96"/>
       <c r="C19" s="125" t="s">
@@ -4199,96 +4221,92 @@
       <c r="O19" s="100"/>
       <c r="P19" s="108"/>
     </row>
-    <row r="20" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="120"/>
-      <c r="B20" s="121"/>
+    <row r="20" spans="1:16" ht="17" thickBot="1">
+      <c r="A20" s="95"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="93" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E20" s="98">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="120"/>
-      <c r="H20" s="122">
-        <v>0.04</v>
-      </c>
-      <c r="I20" s="123"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="123"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="136" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="98">
+      <c r="H20" s="107">
+        <f>J20</f>
         <v>0</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="107">
+      <c r="I20" s="100"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="108"/>
+    </row>
+    <row r="21" spans="1:16" ht="17" thickBot="1">
+      <c r="A21" s="120"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="122">
         <f>J21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="100"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="108"/>
-    </row>
-    <row r="22" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="22"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="123"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="117" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17" thickBot="1">
+      <c r="C22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="89"/>
       <c r="E22" s="101"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="122">
-        <f>J22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="123"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="123"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="117" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="89"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="89"/>
-      <c r="H23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="P23" s="49"/>
-    </row>
-    <row r="24" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="44"/>
+      <c r="F22" s="89"/>
+      <c r="H22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="P22" s="49"/>
+    </row>
+    <row r="23" spans="1:16" ht="17" thickBot="1">
+      <c r="B23" s="44"/>
+      <c r="C23" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="98"/>
+      <c r="F23" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="107">
+        <f>J23</f>
+        <v>25</v>
+      </c>
+      <c r="J23" s="163">
+        <f>Notes!E15</f>
+        <v>25</v>
+      </c>
+      <c r="P23" s="92"/>
+    </row>
+    <row r="24" spans="1:16" ht="17" thickBot="1">
+      <c r="A24" s="95"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="93" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>1</v>
@@ -4298,91 +4316,68 @@
         <v>1</v>
       </c>
       <c r="H24" s="107">
-        <f>J24</f>
-        <v>25</v>
-      </c>
-      <c r="J24" s="164">
-        <f>Notes!E15</f>
-        <v>25</v>
-      </c>
-      <c r="P24" s="92"/>
-    </row>
-    <row r="25" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="117"/>
+    </row>
+    <row r="25" spans="1:16" ht="17" thickBot="1">
       <c r="A25" s="95"/>
       <c r="B25" s="96"/>
       <c r="C25" s="93" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="98"/>
+        <v>55</v>
+      </c>
+      <c r="E25" s="109"/>
       <c r="F25" s="22" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="H25" s="107">
         <v>0</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="166"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="106"/>
       <c r="P25" s="117"/>
     </row>
-    <row r="26" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="17" thickBot="1">
       <c r="A26" s="95"/>
       <c r="B26" s="96"/>
       <c r="C26" s="93" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="109"/>
+        <v>2</v>
+      </c>
+      <c r="E26" s="98">
+        <v>0</v>
+      </c>
       <c r="F26" s="22" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="H26" s="107">
         <v>0</v>
       </c>
-      <c r="I26" s="105"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="105"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="162"/>
+      <c r="K26" s="106"/>
       <c r="L26" s="105"/>
       <c r="M26" s="105"/>
       <c r="N26" s="105"/>
       <c r="O26" s="106"/>
       <c r="P26" s="117"/>
-    </row>
-    <row r="27" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="95"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="98">
-        <v>0</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="107">
-        <v>0</v>
-      </c>
-      <c r="I27" s="106"/>
-      <c r="J27" s="163"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="105"/>
-      <c r="O27" s="106"/>
-      <c r="P27" s="117"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4391,8 +4386,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:J7"/>
@@ -4401,23 +4396,23 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="53" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="53" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="53" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="53" customWidth="1"/>
     <col min="4" max="4" width="11" style="53" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="53" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="53" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="53" customWidth="1"/>
     <col min="7" max="7" width="71" style="53" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="57" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="57" customWidth="1"/>
-    <col min="10" max="10" width="98.5" style="53" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="53"/>
+    <col min="8" max="8" width="12.42578125" style="57" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="57" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="53" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="54"/>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
@@ -4428,7 +4423,7 @@
       <c r="I2" s="58"/>
       <c r="J2" s="55"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="56"/>
       <c r="C3" s="12" t="s">
         <v>14</v>
@@ -4441,7 +4436,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="52"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="56"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -4452,7 +4447,7 @@
       <c r="I4" s="59"/>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="60"/>
       <c r="C5" s="14" t="s">
         <v>15</v>
@@ -4479,32 +4474,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="C6" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="153" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="D6" s="152" t="s">
+        <v>84</v>
       </c>
       <c r="F6" s="53">
         <v>2012</v>
       </c>
-      <c r="G6" s="153" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G6" s="152" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="C7" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="153" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c r="D7" s="152" t="s">
+        <v>85</v>
       </c>
       <c r="F7" s="53">
         <v>2015</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4515,8 +4510,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:O289"/>
@@ -4525,22 +4520,22 @@
       <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="61" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" style="61" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="61" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" style="61" customWidth="1"/>
     <col min="4" max="4" width="13" style="61" customWidth="1"/>
     <col min="5" max="5" width="17" style="61" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="61" customWidth="1"/>
-    <col min="7" max="13" width="10.83203125" style="61"/>
-    <col min="14" max="14" width="15.6640625" style="61" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="61"/>
-    <col min="16" max="16" width="54.6640625" style="61" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="61"/>
+    <col min="6" max="6" width="6.140625" style="61" customWidth="1"/>
+    <col min="7" max="13" width="10.85546875" style="61"/>
+    <col min="14" max="14" width="15.7109375" style="61" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="61"/>
+    <col min="16" max="16" width="54.7109375" style="61" customWidth="1"/>
+    <col min="17" max="16384" width="10.85546875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="17" thickBot="1"/>
+    <row r="2" spans="1:14">
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -4555,7 +4550,7 @@
       <c r="M2" s="63"/>
       <c r="N2" s="64"/>
     </row>
-    <row r="3" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="17" customHeight="1">
       <c r="A3" s="65"/>
       <c r="B3" s="90"/>
       <c r="C3" s="69" t="s">
@@ -4577,14 +4572,14 @@
       <c r="M3" s="66"/>
       <c r="N3" s="91"/>
     </row>
-    <row r="4" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="17" customHeight="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="154"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
       <c r="J4" s="68"/>
@@ -4593,16 +4588,16 @@
       <c r="M4" s="68"/>
       <c r="N4" s="68"/>
     </row>
-    <row r="5" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="17" customHeight="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="154"/>
-      <c r="C5" s="155" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
       <c r="H5" s="68"/>
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
@@ -4611,16 +4606,16 @@
       <c r="M5" s="68"/>
       <c r="N5" s="68"/>
     </row>
-    <row r="6" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="17" customHeight="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="154"/>
+      <c r="B6" s="153"/>
       <c r="C6" s="68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="68"/>
       <c r="E6" s="68"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
       <c r="H6" s="68"/>
       <c r="I6" s="68"/>
       <c r="J6" s="68"/>
@@ -4629,20 +4624,20 @@
       <c r="M6" s="68"/>
       <c r="N6" s="68"/>
     </row>
-    <row r="7" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="17" customHeight="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="154"/>
+      <c r="B7" s="153"/>
       <c r="C7" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="68">
         <v>2.016</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
+        <v>120</v>
+      </c>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
       <c r="I7" s="68"/>
       <c r="J7" s="68"/>
       <c r="K7" s="68"/>
@@ -4650,20 +4645,20 @@
       <c r="M7" s="68"/>
       <c r="N7" s="68"/>
     </row>
-    <row r="8" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="17" customHeight="1">
       <c r="A8" s="65"/>
-      <c r="B8" s="154"/>
+      <c r="B8" s="153"/>
       <c r="C8" s="68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="68">
         <v>28</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
+        <v>120</v>
+      </c>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
       <c r="I8" s="68"/>
       <c r="J8" s="68"/>
       <c r="K8" s="68"/>
@@ -4671,20 +4666,20 @@
       <c r="M8" s="68"/>
       <c r="N8" s="68"/>
     </row>
-    <row r="9" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="17" customHeight="1">
       <c r="A9" s="65"/>
-      <c r="B9" s="154"/>
+      <c r="B9" s="153"/>
       <c r="C9" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="68">
         <v>44</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
+        <v>120</v>
+      </c>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
       <c r="K9" s="68"/>
@@ -4692,21 +4687,21 @@
       <c r="M9" s="68"/>
       <c r="N9" s="68"/>
     </row>
-    <row r="10" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="17" customHeight="1">
       <c r="A10" s="65"/>
-      <c r="B10" s="154"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="68">
         <f>12*11+1.008*24</f>
         <v>156.19200000000001</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
+        <v>120</v>
+      </c>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
       <c r="I10" s="68"/>
       <c r="J10" s="68"/>
       <c r="K10" s="68"/>
@@ -4714,20 +4709,20 @@
       <c r="M10" s="68"/>
       <c r="N10" s="68"/>
     </row>
-    <row r="11" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="17" customHeight="1">
       <c r="A11" s="65"/>
-      <c r="B11" s="154"/>
+      <c r="B11" s="153"/>
       <c r="C11" s="68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="68">
         <v>32</v>
       </c>
       <c r="F11" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
+        <v>120</v>
+      </c>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
       <c r="I11" s="68"/>
       <c r="J11" s="68"/>
       <c r="K11" s="68"/>
@@ -4735,20 +4730,20 @@
       <c r="M11" s="68"/>
       <c r="N11" s="68"/>
     </row>
-    <row r="12" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="17" customHeight="1">
       <c r="A12" s="65"/>
-      <c r="B12" s="154"/>
+      <c r="B12" s="153"/>
       <c r="C12" s="68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="68">
         <v>32.031999999999996</v>
       </c>
       <c r="F12" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
+        <v>120</v>
+      </c>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
       <c r="K12" s="68"/>
@@ -4756,24 +4751,24 @@
       <c r="M12" s="68"/>
       <c r="N12" s="68"/>
     </row>
-    <row r="13" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="17" customHeight="1">
       <c r="A13" s="65"/>
-      <c r="B13" s="154"/>
+      <c r="B13" s="153"/>
       <c r="C13" s="68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" s="68">
         <f>2*12+6*1.008+16</f>
         <v>46.048000000000002</v>
       </c>
       <c r="F13" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G13" s="68">
         <v>0.78900000000000003</v>
       </c>
       <c r="H13" s="68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I13" s="68"/>
       <c r="J13" s="68"/>
@@ -4782,14 +4777,14 @@
       <c r="M13" s="68"/>
       <c r="N13" s="68"/>
     </row>
-    <row r="14" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="17" customHeight="1">
       <c r="A14" s="65"/>
-      <c r="B14" s="154"/>
+      <c r="B14" s="153"/>
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
       <c r="H14" s="68"/>
       <c r="I14" s="68"/>
       <c r="J14" s="68"/>
@@ -4798,19 +4793,19 @@
       <c r="M14" s="68"/>
       <c r="N14" s="68"/>
     </row>
-    <row r="15" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="17" customHeight="1">
       <c r="A15" s="65"/>
-      <c r="B15" s="154"/>
+      <c r="B15" s="153"/>
       <c r="C15" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="155"/>
+      <c r="D15" s="154"/>
       <c r="E15" s="68">
         <v>25</v>
       </c>
-      <c r="F15" s="155"/>
+      <c r="F15" s="154"/>
       <c r="G15" s="68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H15" s="68"/>
       <c r="I15" s="68"/>
@@ -4820,19 +4815,19 @@
       <c r="M15" s="68"/>
       <c r="N15" s="68"/>
     </row>
-    <row r="16" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="17" customHeight="1">
       <c r="A16" s="65"/>
-      <c r="B16" s="154"/>
+      <c r="B16" s="153"/>
       <c r="C16" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="155"/>
+      <c r="D16" s="154"/>
       <c r="E16" s="68">
         <v>8000</v>
       </c>
-      <c r="F16" s="155"/>
+      <c r="F16" s="154"/>
       <c r="G16" s="68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H16" s="68"/>
       <c r="I16" s="68"/>
@@ -4842,19 +4837,19 @@
       <c r="M16" s="68"/>
       <c r="N16" s="68"/>
     </row>
-    <row r="17" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="17" customHeight="1">
       <c r="A17" s="65"/>
-      <c r="B17" s="154"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="155"/>
+        <v>110</v>
+      </c>
+      <c r="D17" s="154"/>
       <c r="E17" s="68">
         <v>10</v>
       </c>
-      <c r="F17" s="155"/>
+      <c r="F17" s="154"/>
       <c r="G17" s="68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H17" s="68"/>
       <c r="I17" s="68"/>
@@ -4864,13 +4859,13 @@
       <c r="M17" s="68"/>
       <c r="N17" s="68"/>
     </row>
-    <row r="18" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="17" customHeight="1">
       <c r="A18" s="65"/>
-      <c r="B18" s="154"/>
+      <c r="B18" s="153"/>
       <c r="C18" s="68"/>
-      <c r="D18" s="155"/>
+      <c r="D18" s="154"/>
       <c r="E18" s="68"/>
-      <c r="F18" s="155"/>
+      <c r="F18" s="154"/>
       <c r="G18" s="68"/>
       <c r="H18" s="68"/>
       <c r="I18" s="68"/>
@@ -4880,8 +4875,8 @@
       <c r="M18" s="68"/>
       <c r="N18" s="68"/>
     </row>
-    <row r="19" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="17" thickBot="1"/>
+    <row r="20" spans="1:15">
       <c r="B20" s="62"/>
       <c r="C20" s="63"/>
       <c r="D20" s="63"/>
@@ -4896,7 +4891,7 @@
       <c r="M20" s="63"/>
       <c r="N20" s="64"/>
     </row>
-    <row r="21" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="17" customHeight="1">
       <c r="A21" s="65"/>
       <c r="B21" s="90"/>
       <c r="C21" s="69" t="s">
@@ -4918,14 +4913,14 @@
       <c r="M21" s="66"/>
       <c r="N21" s="91"/>
     </row>
-    <row r="22" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="17" customHeight="1">
       <c r="A22" s="65"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
       <c r="H22" s="68"/>
       <c r="I22" s="68"/>
       <c r="J22" s="68"/>
@@ -4934,14 +4929,14 @@
       <c r="M22" s="68"/>
       <c r="N22" s="68"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" s="65"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="154"/>
       <c r="E23" s="68"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
       <c r="H23" s="68"/>
       <c r="I23" s="68"/>
       <c r="J23" s="68"/>
@@ -4950,13 +4945,13 @@
       <c r="M23" s="68"/>
       <c r="N23" s="68"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="B24" s="67"/>
-      <c r="C24" s="158" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="138"/>
-      <c r="E24" s="156">
+      <c r="C24" s="157" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="137"/>
+      <c r="E24" s="155">
         <f>D40/(D40+D45/3.6*1000)</f>
         <v>0.61088888543012332</v>
       </c>
@@ -4971,49 +4966,49 @@
       <c r="N24" s="68"/>
       <c r="O24" s="68"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="B25" s="67"/>
-      <c r="C25" s="158" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="138"/>
-      <c r="E25" s="156">
+      <c r="C25" s="157" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="137"/>
+      <c r="E25" s="155">
         <f>D45/3.6*1000/(D40+D45/3.6*1000)</f>
         <v>0.38911111456987657</v>
       </c>
       <c r="N25" s="68"/>
       <c r="O25" s="68"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="B26" s="67"/>
-      <c r="C26" s="158" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="138"/>
-      <c r="E26" s="156">
+      <c r="C26" s="157" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="137"/>
+      <c r="E26" s="155">
         <f>E17*1000/3.6/(E17*1000/3.6+D40+D45/3.6*1000)</f>
         <v>0.81603669588173489</v>
       </c>
       <c r="G26" s="61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N26" s="68"/>
       <c r="O26" s="68"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="B27" s="67"/>
-      <c r="C27" s="158" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="157"/>
-      <c r="E27" s="156">
+      <c r="C27" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="156"/>
+      <c r="E27" s="155">
         <f>1-E26</f>
         <v>0.18396330411826511</v>
       </c>
       <c r="N27" s="68"/>
       <c r="O27" s="68"/>
     </row>
-    <row r="28" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="17" thickBot="1">
       <c r="B28" s="67"/>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
@@ -5021,7 +5016,7 @@
       <c r="N28" s="68"/>
       <c r="O28" s="68"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="B29" s="62"/>
       <c r="C29" s="63"/>
       <c r="D29" s="63"/>
@@ -5036,7 +5031,7 @@
       <c r="M29" s="63"/>
       <c r="N29" s="64"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" s="65"/>
       <c r="B30" s="90"/>
       <c r="C30" s="69" t="s">
@@ -5058,14 +5053,14 @@
       <c r="M30" s="66"/>
       <c r="N30" s="91"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" s="65"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
       <c r="H31" s="68"/>
       <c r="I31" s="68"/>
       <c r="J31" s="68"/>
@@ -5074,324 +5069,324 @@
       <c r="M31" s="68"/>
       <c r="N31" s="68"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="B32" s="67"/>
       <c r="C32" s="65"/>
       <c r="N32" s="68"/>
       <c r="O32" s="68"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15">
       <c r="B33" s="67"/>
       <c r="C33" s="65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N33" s="68"/>
       <c r="O33" s="68"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15">
       <c r="B34" s="67"/>
       <c r="C34" s="61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" s="61">
         <v>1.1399999999999999</v>
       </c>
       <c r="E34" s="61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N34" s="68"/>
       <c r="O34" s="68"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15">
       <c r="B35" s="67"/>
       <c r="N35" s="68"/>
       <c r="O35" s="68"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15">
       <c r="B36" s="67"/>
       <c r="C36" s="61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="61">
         <f>0.3848</f>
         <v>0.38479999999999998</v>
       </c>
       <c r="E36" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="G36" s="61" t="s">
+      <c r="J36" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="J36" s="61" t="s">
+      <c r="L36" s="61" t="s">
         <v>92</v>
-      </c>
-      <c r="L36" s="61" t="s">
-        <v>93</v>
       </c>
       <c r="N36" s="68"/>
       <c r="O36" s="68"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15">
       <c r="B37" s="67"/>
       <c r="D37" s="61">
         <f>D36/D34</f>
         <v>0.33754385964912281</v>
       </c>
       <c r="E37" s="61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N37" s="68"/>
       <c r="O37" s="68"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15">
       <c r="B38" s="67"/>
       <c r="D38" s="61">
         <f>D37*1000</f>
         <v>337.54385964912279</v>
       </c>
       <c r="E38" s="61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N38" s="68"/>
       <c r="O38" s="68"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15">
       <c r="B39" s="67"/>
       <c r="C39" s="61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39" s="61">
         <v>45</v>
       </c>
       <c r="E39" s="61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G39" s="61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N39" s="68"/>
       <c r="O39" s="68"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15">
       <c r="B40" s="67"/>
       <c r="C40" s="61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40" s="135">
         <f>D38+D39</f>
         <v>382.54385964912279</v>
       </c>
       <c r="E40" s="61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N40" s="68"/>
       <c r="O40" s="68"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15">
       <c r="B41" s="67"/>
-      <c r="D41" s="160"/>
+      <c r="D41" s="159"/>
       <c r="E41" s="65"/>
       <c r="N41" s="68"/>
       <c r="O41" s="68"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15">
       <c r="B42" s="67"/>
       <c r="C42" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="160">
+        <v>116</v>
+      </c>
+      <c r="D42" s="159">
         <f>D40*(E8/E9)*1000/E16</f>
         <v>30.429625199362039</v>
       </c>
       <c r="E42" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N42" s="68"/>
       <c r="O42" s="68"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15">
       <c r="B43" s="67"/>
       <c r="N43" s="68"/>
       <c r="O43" s="68"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15">
       <c r="B44" s="67"/>
       <c r="C44" s="61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D44" s="61">
         <v>1</v>
       </c>
       <c r="E44" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="61" t="s">
         <v>100</v>
-      </c>
-      <c r="G44" s="61" t="s">
-        <v>101</v>
       </c>
       <c r="J44" s="61">
         <v>3.15E-2</v>
       </c>
       <c r="K44" s="61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L44" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N44" s="68"/>
       <c r="O44" s="68"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15">
       <c r="B45" s="67"/>
       <c r="D45" s="61">
         <f>D44/D34</f>
         <v>0.87719298245614041</v>
       </c>
       <c r="E45" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N45" s="68"/>
       <c r="O45" s="68"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15">
       <c r="B46" s="67"/>
       <c r="D46" s="61">
         <f>D45/0.857</f>
         <v>1.0235624065999305</v>
       </c>
       <c r="E46" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" s="61" t="s">
         <v>104</v>
-      </c>
-      <c r="G46" s="61" t="s">
-        <v>105</v>
       </c>
       <c r="N46" s="68"/>
       <c r="O46" s="68"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="159"/>
+    <row r="47" spans="2:15">
+      <c r="B47" s="158"/>
       <c r="D47" s="61">
         <f>D45/3.6/0.99</f>
         <v>0.24612597712012918</v>
       </c>
       <c r="E47" s="61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G47" s="61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N47" s="68"/>
       <c r="O47" s="68"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="159"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="159"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="159"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="159"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="159"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="159"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="159"/>
+    <row r="48" spans="2:15">
+      <c r="B48" s="158"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="158"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="158"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="158"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="158"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="158"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="158"/>
       <c r="N54" s="68"/>
       <c r="O54" s="68"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="159"/>
+    <row r="55" spans="2:15">
+      <c r="B55" s="158"/>
       <c r="N55" s="68"/>
       <c r="O55" s="68"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:15">
       <c r="B56" s="67"/>
       <c r="N56" s="68"/>
       <c r="O56" s="68"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:15">
       <c r="B57" s="67"/>
       <c r="N57" s="68"/>
       <c r="O57" s="68"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:15">
       <c r="B58" s="67"/>
       <c r="N58" s="68"/>
       <c r="O58" s="68"/>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:15">
       <c r="B59" s="67"/>
       <c r="N59" s="68"/>
       <c r="O59" s="68"/>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:15">
       <c r="B60" s="67"/>
       <c r="N60" s="68"/>
       <c r="O60" s="68"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:15">
       <c r="B61" s="67"/>
       <c r="N61" s="68"/>
       <c r="O61" s="68"/>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:15">
       <c r="B62" s="67"/>
       <c r="N62" s="68"/>
       <c r="O62" s="68"/>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:15">
       <c r="B63" s="67"/>
       <c r="N63" s="68"/>
       <c r="O63" s="68"/>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:15">
       <c r="B64" s="67"/>
       <c r="N64" s="68"/>
       <c r="O64" s="68"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15">
       <c r="B65" s="67"/>
       <c r="N65" s="68"/>
       <c r="O65" s="68"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15">
       <c r="B66" s="67"/>
       <c r="C66" s="68"/>
       <c r="N66" s="68"/>
       <c r="O66" s="68"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15">
       <c r="B67" s="67"/>
       <c r="C67" s="68"/>
       <c r="D67" s="68"/>
       <c r="N67" s="68"/>
       <c r="O67" s="68"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15">
       <c r="B68" s="67"/>
       <c r="C68" s="68"/>
       <c r="F68" s="110"/>
       <c r="N68" s="68"/>
       <c r="O68" s="68"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15">
       <c r="B69" s="67"/>
       <c r="E69" s="127"/>
       <c r="N69" s="68"/>
       <c r="O69" s="68"/>
     </row>
-    <row r="70" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="17" thickBot="1">
       <c r="B70" s="67"/>
       <c r="N70" s="68"/>
       <c r="O70" s="68"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15">
       <c r="B71" s="62"/>
       <c r="C71" s="63"/>
       <c r="D71" s="63"/>
@@ -5406,7 +5401,7 @@
       <c r="M71" s="63"/>
       <c r="N71" s="64"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15">
       <c r="A72" s="65"/>
       <c r="B72" s="90"/>
       <c r="C72" s="69" t="s">
@@ -5428,161 +5423,161 @@
       <c r="M72" s="66"/>
       <c r="N72" s="91"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15">
       <c r="B73" s="67"/>
       <c r="N73" s="68"/>
       <c r="O73" s="68"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15">
       <c r="B74" s="67"/>
       <c r="C74" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D74" s="61">
         <f>0.1504</f>
         <v>0.15040000000000001</v>
       </c>
       <c r="E74" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="G74" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="G74" s="61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:15">
       <c r="B75" s="67"/>
       <c r="D75" s="135">
         <f>D74/D34</f>
         <v>0.13192982456140354</v>
       </c>
       <c r="E75" s="61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G75" s="61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="B76" s="67"/>
       <c r="D76" s="61">
         <f>D75*0.135*1000</f>
         <v>17.810526315789478</v>
       </c>
       <c r="E76" s="61" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="B77" s="67"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15">
       <c r="B78" s="67"/>
       <c r="C78" s="68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D78" s="68">
         <f>(1300/2229)*D76</f>
         <v>10.387476092654248</v>
       </c>
       <c r="E78" s="61" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="B79" s="67"/>
       <c r="C79" s="65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D79" s="65">
         <f>D78*10*1000000</f>
         <v>103874760.92654248</v>
       </c>
       <c r="E79" s="65" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="B80" s="67"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:13">
       <c r="B81" s="67"/>
       <c r="C81" s="61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D81" s="61">
         <f>D76*(200/2229)</f>
         <v>1.5980732450237307</v>
       </c>
       <c r="E81" s="61" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13">
       <c r="B82" s="67"/>
       <c r="C82" s="61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D82" s="61">
         <f>D76*(20/2229)</f>
         <v>0.15980732450237306</v>
       </c>
       <c r="E82" s="61" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13">
       <c r="B83" s="67"/>
       <c r="C83" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D83" s="61">
         <f>(300/2229)*D76</f>
         <v>2.3971098675355962</v>
       </c>
       <c r="E83" s="61" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13">
       <c r="B84" s="67"/>
       <c r="C84" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D84" s="61">
         <f>D83+D82+D81</f>
         <v>4.1549904370617003</v>
       </c>
       <c r="E84" s="61" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13">
       <c r="B85" s="67"/>
       <c r="D85" s="65">
         <f>D84*1000000*(1/E9)*E8</f>
         <v>2644084.8235847186</v>
       </c>
-      <c r="E85" s="168" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E85" s="167" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13">
       <c r="B86" s="67"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:13">
       <c r="B87" s="67"/>
-      <c r="C87" s="155" t="s">
-        <v>114</v>
+      <c r="C87" s="154" t="s">
+        <v>113</v>
       </c>
       <c r="D87" s="61">
         <f>D76*E15*(1/E9)*E8</f>
         <v>283.34928229665076</v>
       </c>
       <c r="E87" s="61" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13">
       <c r="B88" s="67"/>
       <c r="C88" s="68"/>
       <c r="D88" s="65">
@@ -5590,660 +5585,660 @@
         <v>283349282.29665077</v>
       </c>
       <c r="E88" s="65" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13">
       <c r="B89" s="67"/>
       <c r="C89" s="68"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:13">
       <c r="B90" s="67"/>
       <c r="C90" s="68"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:13">
       <c r="B91" s="67"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:13">
       <c r="B92" s="67"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:13">
       <c r="B93" s="67"/>
       <c r="M93" s="61" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13">
       <c r="B94" s="67"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:13">
       <c r="B95" s="67"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:13">
       <c r="B96" s="67"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2">
       <c r="B97" s="67"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2">
       <c r="B98" s="67"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2">
       <c r="B99" s="67"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2">
       <c r="B100" s="67"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2">
       <c r="B101" s="67"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2">
       <c r="B102" s="67"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2">
       <c r="B103" s="67"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2">
       <c r="B104" s="67"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2">
       <c r="B105" s="67"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2">
       <c r="B106" s="67"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2">
       <c r="B107" s="67"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2">
       <c r="B108" s="67"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2">
       <c r="B109" s="67"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2">
       <c r="B110" s="67"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2">
       <c r="B111" s="67"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2">
       <c r="B112" s="67"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2">
       <c r="B113" s="67"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2">
       <c r="B114" s="67"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2">
       <c r="B115" s="67"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2">
       <c r="B116" s="67"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2">
       <c r="B117" s="67"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2">
       <c r="B118" s="67"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2">
       <c r="B119" s="67"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2">
       <c r="B120" s="67"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2">
       <c r="B121" s="67"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2">
       <c r="B122" s="67"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2">
       <c r="B123" s="67"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2">
       <c r="B124" s="67"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2">
       <c r="B125" s="67"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2">
       <c r="B126" s="67"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2">
       <c r="B127" s="67"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2">
       <c r="B128" s="67"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2">
       <c r="B129" s="67"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2">
       <c r="B130" s="67"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2">
       <c r="B131" s="67"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2">
       <c r="B132" s="67"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2">
       <c r="B133" s="67"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2">
       <c r="B134" s="67"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2">
       <c r="B135" s="67"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2">
       <c r="B136" s="67"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2">
       <c r="B137" s="67"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2">
       <c r="B138" s="67"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2">
       <c r="B139" s="128"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:2">
       <c r="B140" s="128"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:2">
       <c r="B141" s="128"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:2">
       <c r="B142" s="128"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:2">
       <c r="B143" s="128"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:2">
       <c r="B144" s="128"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2">
       <c r="B145" s="128"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2">
       <c r="B146" s="128"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2">
       <c r="B147" s="128"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:2">
       <c r="B148" s="128"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2">
       <c r="B149" s="128"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2">
       <c r="B150" s="128"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2">
       <c r="B151" s="128"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2">
       <c r="B152" s="128"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2">
       <c r="B153" s="128"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:2">
       <c r="B154" s="128"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:2">
       <c r="B155" s="128"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:2">
       <c r="B156" s="128"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:2">
       <c r="B157" s="128"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:2">
       <c r="B158" s="128"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:2">
       <c r="B159" s="128"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:2">
       <c r="B160" s="128"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2">
       <c r="B161" s="128"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2">
       <c r="B162" s="128"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:2">
       <c r="B163" s="128"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:2">
       <c r="B164" s="128"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:2">
       <c r="B165" s="128"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:2">
       <c r="B166" s="128"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:2">
       <c r="B167" s="128"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:2">
       <c r="B168" s="128"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:2">
       <c r="B169" s="128"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:2">
       <c r="B170" s="128"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:2">
       <c r="B171" s="128"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:2">
       <c r="B172" s="128"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:2">
       <c r="B173" s="128"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:2">
       <c r="B174" s="128"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:2">
       <c r="B175" s="128"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:2">
       <c r="B176" s="128"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="B177" s="128"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="B178" s="128"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="B179" s="128"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="B180" s="128"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="B181" s="128"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="B182" s="128"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="B183" s="128"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="B184" s="128"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="B185" s="128"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="B186" s="128"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="B187" s="128"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="B188" s="128"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="B189" s="128"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="B190" s="128"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="B191" s="128"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192" s="126"/>
       <c r="B192" s="128"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193" s="126"/>
       <c r="B193" s="128"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194" s="126"/>
       <c r="B194" s="128"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195" s="126"/>
       <c r="B195" s="128"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196" s="126"/>
       <c r="B196" s="128"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197" s="126"/>
       <c r="B197" s="128"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198" s="126"/>
       <c r="B198" s="128"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199" s="126"/>
       <c r="B199" s="128"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200" s="126"/>
       <c r="B200" s="128"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201" s="126"/>
       <c r="B201" s="128"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202" s="126"/>
       <c r="B202" s="128"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203" s="126"/>
       <c r="B203" s="128"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="A204" s="126"/>
       <c r="B204" s="128"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2">
       <c r="A205" s="126"/>
       <c r="B205" s="128"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2">
       <c r="A206" s="126"/>
       <c r="B206" s="128"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2">
       <c r="A207" s="126"/>
       <c r="B207" s="128"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2">
       <c r="A208" s="126"/>
       <c r="B208" s="128"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2">
       <c r="A209" s="126"/>
       <c r="B209" s="128"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2">
       <c r="A210" s="126"/>
       <c r="B210" s="128"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2">
       <c r="A211" s="126"/>
       <c r="B211" s="128"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2">
       <c r="A212" s="126"/>
       <c r="B212" s="128"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2">
       <c r="A213" s="126"/>
       <c r="B213" s="128"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2">
       <c r="A214" s="126"/>
       <c r="B214" s="128"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2">
       <c r="A215" s="126"/>
       <c r="B215" s="128"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2">
       <c r="A216" s="126"/>
       <c r="B216" s="128"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2">
       <c r="A217" s="126"/>
       <c r="B217" s="128"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2">
       <c r="A218" s="126"/>
       <c r="B218" s="128"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2">
       <c r="A219" s="126"/>
       <c r="B219" s="128"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2">
       <c r="A220" s="126"/>
       <c r="B220" s="128"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2">
       <c r="A221" s="126"/>
       <c r="B221" s="128"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2">
       <c r="A222" s="126"/>
       <c r="B222" s="128"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2">
       <c r="A223" s="126"/>
       <c r="B223" s="128"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2">
       <c r="A224" s="126"/>
       <c r="B224" s="128"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225" s="126"/>
       <c r="B225" s="128"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="A226" s="126"/>
       <c r="B226" s="128"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="A227" s="126"/>
       <c r="B227" s="128"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="A228" s="126"/>
       <c r="B228" s="128"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="A229" s="126"/>
       <c r="B229" s="128"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="A230" s="126"/>
       <c r="B230" s="128"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2">
       <c r="A231" s="126"/>
       <c r="B231" s="128"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="A232" s="126"/>
       <c r="B232" s="128"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2">
       <c r="A233" s="126"/>
       <c r="B233" s="128"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="A234" s="126"/>
       <c r="B234" s="128"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="A235" s="126"/>
       <c r="B235" s="128"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="A236" s="126"/>
       <c r="B236" s="128"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237" s="126"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2">
       <c r="A238" s="126"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239" s="126"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240" s="126"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1">
       <c r="A241" s="126"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1">
       <c r="A242" s="126"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1">
       <c r="A243" s="126"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1">
       <c r="A244" s="126"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1">
       <c r="A245" s="126"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1">
       <c r="A246" s="126"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1">
       <c r="A247" s="126"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1">
       <c r="A248" s="126"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1">
       <c r="A249" s="126"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1">
       <c r="A250" s="126"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1">
       <c r="A251" s="126"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1">
       <c r="A252" s="126"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1">
       <c r="A253" s="126"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1">
       <c r="A254" s="126"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1">
       <c r="A255" s="126"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1">
       <c r="A256" s="126"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1">
       <c r="A257" s="126"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1">
       <c r="A258" s="126"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1">
       <c r="A259" s="126"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1">
       <c r="A260" s="126"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1">
       <c r="A261" s="126"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1">
       <c r="A262" s="126"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1">
       <c r="A263" s="126"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1">
       <c r="A264" s="126"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1">
       <c r="A265" s="126"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1">
       <c r="A266" s="126"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1">
       <c r="A267" s="126"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1">
       <c r="A268" s="126"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1">
       <c r="A269" s="126"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1">
       <c r="A270" s="126"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1">
       <c r="A271" s="126"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1">
       <c r="A272" s="126"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1">
       <c r="A273" s="126"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1">
       <c r="A274" s="126"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1">
       <c r="A275" s="126"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1">
       <c r="A276" s="126"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1">
       <c r="A277" s="126"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1">
       <c r="A278" s="126"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1">
       <c r="A279" s="126"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1">
       <c r="A280" s="126"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1">
       <c r="A281" s="126"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1">
       <c r="A282" s="126"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1">
       <c r="A283" s="126"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1">
       <c r="A284" s="126"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1">
       <c r="A285" s="126"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1">
       <c r="A286" s="126"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1">
       <c r="A287" s="126"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1">
       <c r="A288" s="126"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1">
       <c r="A289" s="126"/>
     </row>
   </sheetData>
